--- a/data/WealthbyRace.xlsx
+++ b/data/WealthbyRace.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="17240" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="Wealth By Race" sheetId="1" r:id="rId1"/>
+    <sheet name="Wealth By Race" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -15,10 +20,20 @@
   <definedNames>
     <definedName name="A">[1]CI!$A$7:$BL$313</definedName>
     <definedName name="AA">[1]CI!$A$7:$BL$313</definedName>
+    <definedName name="B" localSheetId="0">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
+    <definedName name="C_" localSheetId="0">#REF!</definedName>
     <definedName name="C_">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,18 +47,6 @@
   </si>
   <si>
     <t>Hispanic</t>
-  </si>
-  <si>
-    <t>African American</t>
-  </si>
-  <si>
-    <t>Notes: 2013 dollars. No comparable data are available between 1963 and 1983. African American/Hispanic distinction within nonwhite population available only in 1983 and later.</t>
-  </si>
-  <si>
-    <t>Average Family Wealth by Race/Ethnicity, 1963-2013</t>
-  </si>
-  <si>
-    <t>Median Family Wealth by Race/Ethnicity, 1963-2013</t>
   </si>
   <si>
     <r>
@@ -68,18 +71,65 @@
     </r>
   </si>
   <si>
-    <t>Sources: Urban Institute calculations from Survey of Financial Characteristics of Consumers 1962 (December 31), Survey of Changes in Family Finances 1963, and Survey of Consumer Finances 1983–2013.</t>
+    <t>Average Family Wealth by Race/Ethnicity, 1963-2016</t>
+  </si>
+  <si>
+    <t>Median Family Wealth by Race/Ethnicity, 1963-2016</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sources: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Urban Institute calculations from Survey of Financial Characteristics of Consumers 1962 (December 31), Survey of Changes in Family Finances 1963, and Survey of Consumer Finances 1983–2016.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 2016 dollars. No comparable data are available between 1963 and 1983. Black/Hispanic distinction within nonwhite population available only in 1983 and later.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +187,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -159,19 +222,18 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" applyAlignment="0"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1"/>
@@ -188,46 +250,48 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Excluded" xfId="3"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8"/>
-    <cellStyle name="Included" xfId="4"/>
+  <cellStyles count="14">
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Excluded" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8"/>
+    <cellStyle name="Included" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11 2" xfId="5"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
-    <cellStyle name="Normal 2 3" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 3 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 5" xfId="12"/>
-    <cellStyle name="Percent 2" xfId="13"/>
+    <cellStyle name="Normal 11 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal 2 3" xfId="7"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 3 2" xfId="9"/>
+    <cellStyle name="Normal 4" xfId="10"/>
+    <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Percent 2" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -23694,12 +23758,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -23729,12 +23793,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -23938,549 +24002,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1963</v>
+      </c>
+      <c r="B3" s="5">
+        <v>19503.837296197631</v>
+      </c>
+      <c r="C3" s="5">
+        <v>140632.66040256922</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B4" s="5">
+        <v>73233.615735715925</v>
+      </c>
+      <c r="C4" s="5">
+        <v>324057.59999999998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>67269.600000000006</v>
+      </c>
+      <c r="E4" s="5">
+        <v>62562.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7">
+        <v>424082.4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>78092.2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>84397.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7">
+        <v>373825.9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>80779.48</v>
+      </c>
+      <c r="E6" s="7">
+        <v>90751.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7">
+        <v>394522.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>68908.639999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>96487.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
+        <v>497581.1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>94972.45</v>
+      </c>
+      <c r="E8" s="7">
+        <v>128518.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7">
+        <v>662337.1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>97930.09</v>
+      </c>
+      <c r="E9" s="7">
+        <v>119857.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7">
+        <v>715453.3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>146127.9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>158725.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7">
+        <v>802519.8</v>
+      </c>
+      <c r="D11" s="7">
+        <v>156285.1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>215534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7">
+        <v>715067.3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>110569.1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>128038.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7">
+        <v>717069.1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>102106</v>
+      </c>
+      <c r="E13" s="7">
+        <v>111160.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>919336.1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>139523.1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>191727.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>1963</v>
       </c>
-      <c r="B3" s="3">
-        <v>18892</v>
+      <c r="B18" s="5">
+        <v>2467.40266450944</v>
       </c>
-      <c r="C3" s="3">
-        <v>136221</v>
+      <c r="C18" s="5">
+        <v>47654.940164751359</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>1983</v>
       </c>
-      <c r="B4" s="3">
-        <v>70936.27</v>
+      <c r="B19" s="5">
+        <v>13324.170541700874</v>
       </c>
-      <c r="C4" s="3">
-        <v>313891.90000000002</v>
+      <c r="C19" s="5">
+        <v>105369.1</v>
       </c>
-      <c r="D4" s="3">
-        <v>65159.34</v>
+      <c r="D19" s="5">
+        <v>13324.17</v>
       </c>
-      <c r="E4" s="3">
-        <v>60599.89</v>
+      <c r="E19" s="5">
+        <v>9644.2090000000007</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>1989</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3">
-        <v>410834.2</v>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>134677.79999999999</v>
       </c>
-      <c r="D5" s="3">
-        <v>75652.63</v>
+      <c r="D20" s="7">
+        <v>8023.1980000000003</v>
       </c>
-      <c r="E5" s="3">
-        <v>81761.179999999993</v>
+      <c r="E20" s="7">
+        <v>9329.3009999999995</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>1992</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3">
-        <v>362167</v>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
+        <v>116891.7</v>
       </c>
-      <c r="D6" s="3">
-        <v>78260.11</v>
+      <c r="D21" s="7">
+        <v>16602.98</v>
       </c>
-      <c r="E6" s="3">
-        <v>87921.4</v>
+      <c r="E21" s="7">
+        <v>11387.3</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>1995</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3">
-        <v>382398.5</v>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>120269.1</v>
       </c>
-      <c r="D7" s="3">
-        <v>66791.06</v>
+      <c r="D22" s="7">
+        <v>17100.77</v>
       </c>
-      <c r="E7" s="3">
-        <v>93522.59</v>
+      <c r="E22" s="7">
+        <v>19575.05</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>1998</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3">
-        <v>478030.9</v>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7">
+        <v>141614.39999999999</v>
       </c>
-      <c r="D8" s="3">
-        <v>92296.11</v>
+      <c r="D23" s="7">
+        <v>22869.59</v>
       </c>
-      <c r="E8" s="3">
-        <v>124260.4</v>
+      <c r="E23" s="7">
+        <v>14503.75</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>2001</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3">
-        <v>636966.69999999995</v>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <v>166511.20000000001</v>
       </c>
-      <c r="D9" s="3">
-        <v>101614.2</v>
+      <c r="D24" s="7">
+        <v>26148.63</v>
       </c>
-      <c r="E9" s="3">
-        <v>120240.7</v>
+      <c r="E24" s="7">
+        <v>15851.76</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>2004</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3">
-        <v>684574</v>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
+        <v>179283.1</v>
       </c>
-      <c r="D10" s="3">
-        <v>139471.20000000001</v>
+      <c r="D25" s="7">
+        <v>25944.35</v>
       </c>
-      <c r="E10" s="3">
-        <v>156642</v>
+      <c r="E25" s="7">
+        <v>19509.14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>2007</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3">
-        <v>759064.9</v>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7">
+        <v>198622.7</v>
       </c>
-      <c r="D11" s="3">
-        <v>151430.79999999999</v>
+      <c r="D26" s="7">
+        <v>24318.31</v>
       </c>
-      <c r="E11" s="3">
-        <v>208226</v>
+      <c r="E26" s="7">
+        <v>24434.12</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>2010</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3">
-        <v>672749.3</v>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7">
+        <v>143416.4</v>
       </c>
-      <c r="D12" s="3">
-        <v>105779.3</v>
+      <c r="D27" s="7">
+        <v>17574.73</v>
       </c>
-      <c r="E12" s="3">
-        <v>116688.4</v>
+      <c r="E27" s="7">
+        <v>18293.189999999999</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>2013</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3">
-        <v>677657.5</v>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7">
+        <v>146313.79999999999</v>
       </c>
-      <c r="D13" s="3">
-        <v>95350.96</v>
+      <c r="D28" s="7">
+        <v>13486.85</v>
       </c>
-      <c r="E13" s="3">
-        <v>112227.2</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
+      <c r="E28" s="7">
+        <v>14229.24</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="3" t="s">
-        <v>0</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>2016</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <v>171000</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="7">
+        <v>17409</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
+      <c r="E29" s="7">
+        <v>20920</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>1963</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="B17" s="3">
-        <v>2390</v>
-      </c>
-      <c r="C17" s="3">
-        <v>46160</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
-        <v>1983</v>
-      </c>
-      <c r="B18" s="3">
-        <v>12906.19</v>
-      </c>
-      <c r="C18" s="3">
-        <v>102063.7</v>
-      </c>
-      <c r="D18" s="3">
-        <v>12906.19</v>
-      </c>
-      <c r="E18" s="3">
-        <v>9341.6689999999999</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>1989</v>
-      </c>
-      <c r="C19" s="3">
-        <v>130470.5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>7772.5550000000003</v>
-      </c>
-      <c r="E19" s="3">
-        <v>9037.8539999999994</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>1992</v>
-      </c>
-      <c r="C20" s="3">
-        <v>113246</v>
-      </c>
-      <c r="D20" s="3">
-        <v>16085.16</v>
-      </c>
-      <c r="E20" s="3">
-        <v>11032.15</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3">
-        <v>1995</v>
-      </c>
-      <c r="C21" s="3">
-        <v>116573.2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>16575.259999999998</v>
-      </c>
-      <c r="E21" s="3">
-        <v>18973.509999999998</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3">
-        <v>1998</v>
-      </c>
-      <c r="C22" s="3">
-        <v>135918.9</v>
-      </c>
-      <c r="D22" s="3">
-        <v>22157.59</v>
-      </c>
-      <c r="E22" s="3">
-        <v>14052.2</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3">
-        <v>2001</v>
-      </c>
-      <c r="C23" s="3">
-        <v>159555.79999999999</v>
-      </c>
-      <c r="D23" s="3">
-        <v>25108.69</v>
-      </c>
-      <c r="E23" s="3">
-        <v>15233.31</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3">
-        <v>2004</v>
-      </c>
-      <c r="C24" s="3">
-        <v>168632.2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>25279.41</v>
-      </c>
-      <c r="E24" s="3">
-        <v>19150.7</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="3">
-        <v>2007</v>
-      </c>
-      <c r="C25" s="3">
-        <v>183262.7</v>
-      </c>
-      <c r="D25" s="3">
-        <v>19199.8</v>
-      </c>
-      <c r="E25" s="3">
-        <v>23589.94</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C26" s="3">
-        <v>132225.79999999999</v>
-      </c>
-      <c r="D26" s="3">
-        <v>16686.3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>16075.44</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="3">
-        <v>2013</v>
-      </c>
-      <c r="C27" s="3">
-        <v>134230</v>
-      </c>
-      <c r="D27" s="3">
-        <v>11030</v>
-      </c>
-      <c r="E27" s="3">
-        <v>13730</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="8" t="s">
+    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="9" t="s">
-        <v>7</v>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A31" r:id="rId1" display="http://urbn.is/wealthcharts"/>
+    <hyperlink ref="A33" r:id="rId1" display="http://urbn.is/wealthcharts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="95" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="75" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/WealthbyRace.xlsx
+++ b/data/WealthbyRace.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\LHP\SMcKerna\Nine Charts 2017\Nine Charts Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1020" windowWidth="17240" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="17235" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Wealth By Race" sheetId="2" r:id="rId1"/>
@@ -71,9 +71,6 @@
     </r>
   </si>
   <si>
-    <t>Average Family Wealth by Race/Ethnicity, 1963-2016</t>
-  </si>
-  <si>
     <t>Median Family Wealth by Race/Ethnicity, 1963-2016</t>
   </si>
   <si>
@@ -86,6 +83,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Sources: </t>
@@ -107,6 +105,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Notes:</t>
@@ -121,15 +120,18 @@
       <t> 2016 dollars. No comparable data are available between 1963 and 1983. Black/Hispanic distinction within nonwhite population available only in 1983 and later.</t>
     </r>
   </si>
+  <si>
+    <t>Average Family Wealth by Race/Ethnicity, 1963–2016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,12 +194,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -24002,31 +24006,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -24034,13 +24034,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>1963</v>
       </c>
@@ -24053,7 +24053,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>1983</v>
       </c>
@@ -24070,7 +24070,7 @@
         <v>62562.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1989</v>
       </c>
@@ -24085,7 +24085,7 @@
         <v>84397.75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>1992</v>
       </c>
@@ -24100,7 +24100,7 @@
         <v>90751.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>1995</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>96487.67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>1998</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>128518.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>2001</v>
       </c>
@@ -24145,7 +24145,7 @@
         <v>119857.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>2004</v>
       </c>
@@ -24160,7 +24160,7 @@
         <v>158725.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>2007</v>
       </c>
@@ -24175,7 +24175,7 @@
         <v>215534</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>2010</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>128038.7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>2013</v>
       </c>
@@ -24205,7 +24205,7 @@
         <v>111160.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>2016</v>
       </c>
@@ -24220,15 +24220,15 @@
         <v>191727.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -24236,13 +24236,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>1963</v>
       </c>
@@ -24255,7 +24255,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>1983</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>9644.2090000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>1989</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>9329.3009999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>1992</v>
       </c>
@@ -24302,7 +24302,7 @@
         <v>11387.3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>1995</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>19575.05</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>1998</v>
       </c>
@@ -24332,7 +24332,7 @@
         <v>14503.75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>2001</v>
       </c>
@@ -24347,7 +24347,7 @@
         <v>15851.76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>2004</v>
       </c>
@@ -24362,7 +24362,7 @@
         <v>19509.14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>2007</v>
       </c>
@@ -24377,7 +24377,7 @@
         <v>24434.12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>2010</v>
       </c>
@@ -24392,7 +24392,7 @@
         <v>18293.189999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>2013</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>14229.24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>2016</v>
       </c>
@@ -24422,17 +24422,17 @@
         <v>20920</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="8" customFormat="1">
+      <c r="A32" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
